--- a/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 1, 12) 24h Erros todo.xlsx
+++ b/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 1, 12) 24h Erros todo.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6034976415279217</v>
+        <v>0.5844838621321127</v>
       </c>
       <c r="C11" t="n">
-        <v>1.972473314469629</v>
+        <v>1.914039674854567</v>
       </c>
       <c r="D11" t="n">
-        <v>3.390602516511244</v>
+        <v>3.347298427580071</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 1, 12) 24h Erros todo.xlsx
+++ b/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 1, 12) 24h Erros todo.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4276438748934774</v>
+        <v>0.4224649924278342</v>
       </c>
       <c r="C11" t="n">
-        <v>1.377827834375748</v>
+        <v>1.372771570085266</v>
       </c>
       <c r="D11" t="n">
-        <v>2.986105895146089</v>
+        <v>2.784967456102226</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 1, 12) 24h Erros todo.xlsx
+++ b/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 1, 12) 24h Erros todo.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.086981206597124</v>
+        <v>10.92810982581189</v>
       </c>
       <c r="C2" t="n">
-        <v>16.35961544715748</v>
+        <v>28.88738773158099</v>
       </c>
       <c r="D2" t="n">
-        <v>4.609648504356276</v>
+        <v>13.95100603201475</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.916166341818759</v>
+        <v>16.78241465901546</v>
       </c>
       <c r="C3" t="n">
-        <v>29.49762554124127</v>
+        <v>45.96562428799612</v>
       </c>
       <c r="D3" t="n">
-        <v>16.66179256068069</v>
+        <v>37.5123681203061</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.374875982921497</v>
+        <v>11.35350778939592</v>
       </c>
       <c r="C4" t="n">
-        <v>20.52549888355108</v>
+        <v>29.76770670531711</v>
       </c>
       <c r="D4" t="n">
-        <v>27.03446389305006</v>
+        <v>39.0204900193641</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.394623415854621</v>
+        <v>12.19975098603175</v>
       </c>
       <c r="C5" t="n">
-        <v>17.48928844003015</v>
+        <v>32.94351673674247</v>
       </c>
       <c r="D5" t="n">
-        <v>23.05271468087508</v>
+        <v>42.99417143799644</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.205022147677583</v>
+        <v>11.27271499484197</v>
       </c>
       <c r="C6" t="n">
-        <v>16.78325531903047</v>
+        <v>30.40897929698581</v>
       </c>
       <c r="D6" t="n">
-        <v>22.03925745590771</v>
+        <v>40.18497270729499</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.783738335158167</v>
+        <v>11.69187112813723</v>
       </c>
       <c r="C7" t="n">
-        <v>19.0816650256595</v>
+        <v>32.17191719636711</v>
       </c>
       <c r="D7" t="n">
-        <v>24.70344292819158</v>
+        <v>41.18068224321574</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.74670954867601</v>
+        <v>16.77757210969542</v>
       </c>
       <c r="C8" t="n">
-        <v>28.9297116804268</v>
+        <v>46.04527895029111</v>
       </c>
       <c r="D8" t="n">
-        <v>39.99687175784772</v>
+        <v>60.95609019513848</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.931855873836891</v>
+        <v>16.75937881218108</v>
       </c>
       <c r="C9" t="n">
-        <v>29.5545538460955</v>
+        <v>46.02948140332412</v>
       </c>
       <c r="D9" t="n">
-        <v>40.77057024420473</v>
+        <v>60.76286140387007</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.10237576220065</v>
+        <v>21.71358945759849</v>
       </c>
       <c r="C10" t="n">
-        <v>94.07123071891112</v>
+        <v>86.25281474647453</v>
       </c>
       <c r="D10" t="n">
-        <v>94.25051742984768</v>
+        <v>86.42913354046772</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4224649924278342</v>
+        <v>0.7269146113828231</v>
       </c>
       <c r="C11" t="n">
-        <v>1.372771570085266</v>
+        <v>1.431807659995065</v>
       </c>
       <c r="D11" t="n">
-        <v>2.784967456102226</v>
+        <v>5.156345586000198</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.07906980786028282</v>
+        <v>0.04897496816568388</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2766014824144631</v>
+        <v>0.1492056340387423</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3783737440576436</v>
+        <v>0.2047108708837254</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5297867265445728</v>
+        <v>0.9943879538530197</v>
       </c>
       <c r="C13" t="n">
-        <v>1.667342153393774</v>
+        <v>1.748185243452988</v>
       </c>
       <c r="D13" t="n">
-        <v>4.446246105171554</v>
+        <v>6.627628329490828</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 1, 12) 24h Erros todo.xlsx
+++ b/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 1, 12) 24h Erros todo.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10.92810982581189</v>
+        <v>11.34703848889769</v>
       </c>
       <c r="C2" t="n">
-        <v>28.88738773158099</v>
+        <v>31.01860256450136</v>
       </c>
       <c r="D2" t="n">
-        <v>13.95100603201475</v>
+        <v>15.90366442811393</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.78241465901546</v>
+        <v>17.54681965399766</v>
       </c>
       <c r="C3" t="n">
-        <v>45.96562428799612</v>
+        <v>50.58326343810808</v>
       </c>
       <c r="D3" t="n">
-        <v>37.5123681203061</v>
+        <v>44.78158891601785</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.35350778939592</v>
+        <v>11.97962680572042</v>
       </c>
       <c r="C4" t="n">
-        <v>29.76770670531711</v>
+        <v>32.57564510876203</v>
       </c>
       <c r="D4" t="n">
-        <v>39.0204900193641</v>
+        <v>42.02530664879692</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12.19975098603175</v>
+        <v>12.64756957021035</v>
       </c>
       <c r="C5" t="n">
-        <v>32.94351673674247</v>
+        <v>34.47845787007142</v>
       </c>
       <c r="D5" t="n">
-        <v>42.99417143799644</v>
+        <v>44.34233330144635</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11.27271499484197</v>
+        <v>11.9728036021969</v>
       </c>
       <c r="C6" t="n">
-        <v>30.40897929698581</v>
+        <v>33.19944627848597</v>
       </c>
       <c r="D6" t="n">
-        <v>40.18497270729499</v>
+        <v>42.69965580799746</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.69187112813723</v>
+        <v>11.91889670211802</v>
       </c>
       <c r="C7" t="n">
-        <v>32.17191719636711</v>
+        <v>33.91608537284462</v>
       </c>
       <c r="D7" t="n">
-        <v>41.18068224321574</v>
+        <v>43.03105826222907</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.77757210969542</v>
+        <v>17.43578242953527</v>
       </c>
       <c r="C8" t="n">
-        <v>46.04527895029111</v>
+        <v>50.22831013283533</v>
       </c>
       <c r="D8" t="n">
-        <v>60.95609019513848</v>
+        <v>66.29016222949942</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16.75937881218108</v>
+        <v>17.59283429865422</v>
       </c>
       <c r="C9" t="n">
-        <v>46.02948140332412</v>
+        <v>50.80501062109767</v>
       </c>
       <c r="D9" t="n">
-        <v>60.76286140387007</v>
+        <v>66.7047641356509</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.71358945759849</v>
+        <v>21.49999128679044</v>
       </c>
       <c r="C10" t="n">
-        <v>86.25281474647453</v>
+        <v>87.22876945061842</v>
       </c>
       <c r="D10" t="n">
-        <v>86.42913354046772</v>
+        <v>87.73173763960573</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7269146113828231</v>
+        <v>0.7349406011867897</v>
       </c>
       <c r="C11" t="n">
-        <v>1.431807659995065</v>
+        <v>1.793054402837135</v>
       </c>
       <c r="D11" t="n">
-        <v>5.156345586000198</v>
+        <v>5.146731759194885</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04897496816568388</v>
+        <v>0.1273864526191124</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1492056340387423</v>
+        <v>0.39746233989505</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2047108708837254</v>
+        <v>0.5566781141417482</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9943879538530197</v>
+        <v>1.202908608597976</v>
       </c>
       <c r="C13" t="n">
-        <v>1.748185243452988</v>
+        <v>2.541571608593616</v>
       </c>
       <c r="D13" t="n">
-        <v>6.627628329490828</v>
+        <v>9.371998445906501</v>
       </c>
     </row>
   </sheetData>
